--- a/铝/data_input/氧化铝价格_api.xlsx
+++ b/铝/data_input/氧化铝价格_api.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D581"/>
+  <dimension ref="A1:D583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7453,7 +7453,9 @@
         <v>2777</v>
       </c>
       <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr"/>
+      <c r="D578" t="n">
+        <v>188.3049</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -7463,7 +7465,9 @@
         <v>2799</v>
       </c>
       <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr"/>
+      <c r="D579" t="n">
+        <v>210.3049</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -7473,7 +7477,9 @@
         <v>2804</v>
       </c>
       <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr"/>
+      <c r="D580" t="n">
+        <v>215.3049</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -7485,7 +7491,31 @@
       <c r="C581" t="n">
         <v>492.9607</v>
       </c>
-      <c r="D581" t="inlineStr"/>
+      <c r="D581" t="n">
+        <v>230.8623</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B582" t="n">
+        <v>2789</v>
+      </c>
+      <c r="C582" t="inlineStr"/>
+      <c r="D582" t="n">
+        <v>242.8623</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B583" t="n">
+        <v>2775</v>
+      </c>
+      <c r="C583" t="inlineStr"/>
+      <c r="D583" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
